--- a/mercury/src/test/resources/testdata/poi-test.xlsx
+++ b/mercury/src/test/resources/testdata/poi-test.xlsx
@@ -620,7 +620,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
